--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Katalon Studio\Kraft_Katalon_Work\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B7B3C0DF-2F35-482B-8D71-C2A5D3879E11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F1551-347A-4EFA-93D9-9BFE47A58ADF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="2" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Accounts Planner</t>
   </si>
   <si>
-    <t>2018 Meijer  / Meals</t>
-  </si>
-  <si>
     <t>PRODUCT_SELECTION</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>L22 6-7z Mixed Pasta Salads 12 $13.68</t>
   </si>
   <si>
-    <t>CUSTOMER PLAN</t>
-  </si>
-  <si>
     <t>ADD_NEW</t>
   </si>
   <si>
@@ -198,6 +192,42 @@
   </si>
   <si>
     <t>BTN_APPLY_EDLP</t>
+  </si>
+  <si>
+    <t>Trade Rate by Month</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>GSV LE vs AOP</t>
+  </si>
+  <si>
+    <t>Current Month Bookings vs Forecast</t>
+  </si>
+  <si>
+    <t>Sales Calendar</t>
+  </si>
+  <si>
+    <t>ADD_SECTIONS</t>
+  </si>
+  <si>
+    <t>DELETE_SECTIONS</t>
+  </si>
+  <si>
+    <t>CHART_LIST</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSV LE </t>
+  </si>
+  <si>
+    <t>Events;Trade Rate by Month</t>
   </si>
 </sst>
 </file>
@@ -242,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,9 +284,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -578,7 +605,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,10 +693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492717E-1E7A-4A9E-BD57-6FCA78715695}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,9 +706,9 @@
     <col min="3" max="3" width="37.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="68" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="3"/>
@@ -703,6 +730,15 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -720,10 +756,76 @@
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -732,17 +834,17 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -759,60 +861,69 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>2018</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -853,62 +964,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -916,13 +1027,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -945,11 +1056,11 @@
       <c r="P2" s="3">
         <v>1</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>52</v>
+      <c r="R2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -957,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -986,11 +1097,11 @@
       <c r="P3" s="3">
         <v>4</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>52</v>
+      <c r="R3" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F1551-347A-4EFA-93D9-9BFE47A58ADF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD61472-C78B-45BE-98B7-E46253F6FA1D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="2" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -228,6 +228,21 @@
   </si>
   <si>
     <t>Events;Trade Rate by Month</t>
+  </si>
+  <si>
+    <t>GROUP_PPG</t>
+  </si>
+  <si>
+    <t>ADD_PPG</t>
+  </si>
+  <si>
+    <t>DELETE_PPG</t>
+  </si>
+  <si>
+    <t>.033z FS Crystal Light Envelope $26.17</t>
+  </si>
+  <si>
+    <t>.08z FS Crystal Light On the Go $25.21</t>
   </si>
 </sst>
 </file>
@@ -695,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492717E-1E7A-4A9E-BD57-6FCA78715695}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +849,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,57 +1127,98 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD61472-C78B-45BE-98B7-E46253F6FA1D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA87EB0-6FCD-4B60-9DA4-FF641B73563B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="3" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>UNITS</t>
   </si>
   <si>
-    <t>L22 6-7z Mixed Pasta Salads 12 $13.68</t>
-  </si>
-  <si>
     <t>ADD_NEW</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>.08z FS Crystal Light On the Go $25.21</t>
+  </si>
+  <si>
+    <t>13z Velveeta Bowls $32.52</t>
   </si>
 </sst>
 </file>
@@ -746,13 +746,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,39 +772,39 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -824,18 +824,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,22 +888,22 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -920,25 +920,25 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -983,58 +983,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1042,13 +1042,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="3">
         <v>1</v>
@@ -1072,10 +1072,10 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1083,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I3" s="3">
         <v>1</v>
@@ -1113,10 +1113,10 @@
         <v>4</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,7 +1182,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,7 +1190,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\autoCode\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F1551-347A-4EFA-93D9-9BFE47A58ADF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97C307F-EF55-47A5-9D90-0A1568DDA170}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="2" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -228,6 +228,24 @@
   </si>
   <si>
     <t>Events;Trade Rate by Month</t>
+  </si>
+  <si>
+    <t>.09z FS Crystal Light On the Go $25.21</t>
+  </si>
+  <si>
+    <t>PPG_NAME</t>
+  </si>
+  <si>
+    <t>Please confirm</t>
+  </si>
+  <si>
+    <t>POPUP_DELETE</t>
+  </si>
+  <si>
+    <t>POPUP_INFO</t>
+  </si>
+  <si>
+    <t>Info</t>
   </si>
 </sst>
 </file>
@@ -695,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492717E-1E7A-4A9E-BD57-6FCA78715695}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1112,59 +1130,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="2" max="2" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA87EB0-6FCD-4B60-9DA4-FF641B73563B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA3DEF-C79A-4434-9BD0-1883E2A4A66D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="3" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Total_Allowances</t>
   </si>
   <si>
-    <t>Unit_Cost_Net_Allowances</t>
-  </si>
-  <si>
     <t>Non_Promo_SRP</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>DIALOG_BOX</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>DIALOG_MSG</t>
   </si>
   <si>
@@ -179,15 +173,6 @@
     <t>Oct/29/2018</t>
   </si>
   <si>
-    <t>$ BB Per Unit</t>
-  </si>
-  <si>
-    <t>Nov/23/2018</t>
-  </si>
-  <si>
-    <t>Nov/29/2018</t>
-  </si>
-  <si>
     <t>BTN_APPLY_EDLP</t>
   </si>
   <si>
@@ -236,13 +221,31 @@
     <t>DELETE_PPG</t>
   </si>
   <si>
-    <t>.033z FS Crystal Light Envelope $26.17</t>
-  </si>
-  <si>
     <t>.08z FS Crystal Light On the Go $25.21</t>
   </si>
   <si>
-    <t>13z Velveeta Bowls $32.52</t>
+    <t>Product Costing</t>
+  </si>
+  <si>
+    <t>Base Planning</t>
+  </si>
+  <si>
+    <t>Inc Planning</t>
+  </si>
+  <si>
+    <t>003 32z Velveeta Loaf 12 $96.12</t>
+  </si>
+  <si>
+    <t>EVENTS</t>
+  </si>
+  <si>
+    <t>BOTTOM_HEADER</t>
+  </si>
+  <si>
+    <t>Unit_Cost_Net_Allow</t>
+  </si>
+  <si>
+    <t>$ Scan per Unit</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,6 +304,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -746,13 +752,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,39 +778,39 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -824,18 +830,18 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -846,10 +852,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,9 +872,10 @@
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,25 +895,31 @@
         <v>18</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -919,39 +932,53 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,22 +1046,22 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1042,28 +1069,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="G2" s="3">
+        <v>96.12</v>
+      </c>
+      <c r="H2" s="3">
+        <v>8.01</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="3">
-        <v>1</v>
+        <v>6.01</v>
       </c>
       <c r="N2" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O2" s="3">
         <v>2</v>
@@ -1072,51 +1105,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3">
-        <v>3</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>4</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1130,7 +1119,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,13 +1148,13 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1182,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1190,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,36 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F612D-D381-44C8-8932-C20785409A79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026A464-1119-4B43-A099-A4CB4E074640}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="6" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="NAVIGATION" sheetId="5" r:id="rId2"/>
     <sheet name="DASHBRD" sheetId="2" r:id="rId3"/>
     <sheet name="ACC_PLANNER" sheetId="3" r:id="rId4"/>
-    <sheet name="ACC_PLANNER_PROD_COST" sheetId="7" r:id="rId5"/>
-    <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId6"/>
+    <sheet name="BasPlaning" sheetId="8" r:id="rId5"/>
+    <sheet name="ACC_PLANNER_PROD_COST" sheetId="7" r:id="rId6"/>
+    <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -209,9 +215,6 @@
     <t xml:space="preserve">GSV LE </t>
   </si>
   <si>
-    <t>Events;Trade Rate by Month</t>
-  </si>
-  <si>
     <t>GROUP_PPG</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
     <t>DELETE_PPG</t>
   </si>
   <si>
-    <t>.08z FS Crystal Light On the Go $25.21</t>
-  </si>
-  <si>
     <t>Product Costing</t>
   </si>
   <si>
@@ -236,9 +236,6 @@
     <t>003 32z Velveeta Loaf 12 $96.12</t>
   </si>
   <si>
-    <t>EVENTS</t>
-  </si>
-  <si>
     <t>BOTTOM_HEADER</t>
   </si>
   <si>
@@ -249,13 +246,85 @@
   </si>
   <si>
     <t>UB5 36z Velveeta Loaf 12 $15.30</t>
+  </si>
+  <si>
+    <t>$ BB Per Case</t>
+  </si>
+  <si>
+    <t>ALBERTSONS REGION</t>
+  </si>
+  <si>
+    <t>EVENT_ID</t>
+  </si>
+  <si>
+    <t>TEST333</t>
+  </si>
+  <si>
+    <t>CREATE_EVENT_NAME</t>
+  </si>
+  <si>
+    <t>CONTRACTOR_NUMBERS</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>ACME REVENUE RE-WRITE</t>
+  </si>
+  <si>
+    <t>END_DATE1</t>
+  </si>
+  <si>
+    <t>START_DATE1</t>
+  </si>
+  <si>
+    <t>11/16/2018</t>
+  </si>
+  <si>
+    <t>10/19/2018</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>002 16z Velveeta Loaf 12 $49.32</t>
+  </si>
+  <si>
+    <t>CUSTOMER_SEGMENT</t>
+  </si>
+  <si>
+    <t>EDLP_SPEND_METHOD</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Shp_Lead_WK</t>
+  </si>
+  <si>
+    <t>$ OI Per Case</t>
+  </si>
+  <si>
+    <t>Hilo</t>
+  </si>
+  <si>
+    <t>Lion</t>
+  </si>
+  <si>
+    <t>Milo</t>
+  </si>
+  <si>
+    <t>GRID_ROW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +339,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +393,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,7 +808,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>49</v>
@@ -787,7 +875,7 @@
         <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -798,23 +886,32 @@
         <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -833,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>49</v>
@@ -843,6 +940,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
@@ -855,10 +955,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,7 +967,7 @@
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -875,10 +975,15 @@
     <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="13" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -916,13 +1021,28 @@
         <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -936,7 +1056,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -957,17 +1077,35 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2">
+        <v>1220</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M4" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -977,11 +1115,42 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852E9883-9B92-4412-B0FC-52193B67EA89}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1218,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>31</v>
@@ -1099,7 +1268,24 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1108,12 +1294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1311,15 @@
     <col min="5" max="5" width="34.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="8" max="8" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,16 +1333,31 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1165,48 +1371,69 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="3">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D026A464-1119-4B43-A099-A4CB4E074640}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9492DAD9-672B-465B-9C7C-4B26BE139E94}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="6" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
@@ -1298,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\COMPASS\autoCode\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F612D-D381-44C8-8932-C20785409A79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5B4C768F-14F0-4FD1-AC5A-AD8DEF98DBDD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -249,13 +249,19 @@
   </si>
   <si>
     <t>UB5 36z Velveeta Loaf 12 $15.30</t>
+  </si>
+  <si>
+    <t>0IX 5.5-6z Mac&amp;Cheese MWO 12 $17.28</t>
+  </si>
+  <si>
+    <t>6Z KR M&amp;C MWO ELBOWS CHDR 12 | 000000210000609200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +276,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -980,7 +994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1112,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,11 +1194,35 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -1208,5 +1246,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024F612D-D381-44C8-8932-C20785409A79}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70F469-BB1C-4227-B0FE-B9269864245D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="3" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -206,12 +206,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t xml:space="preserve">GSV LE </t>
-  </si>
-  <si>
-    <t>Events;Trade Rate by Month</t>
-  </si>
-  <si>
     <t>GROUP_PPG</t>
   </si>
   <si>
@@ -249,13 +243,43 @@
   </si>
   <si>
     <t>UB5 36z Velveeta Loaf 12 $15.30</t>
+  </si>
+  <si>
+    <t>CUSTOMER_SEGMENT</t>
+  </si>
+  <si>
+    <t>EDLP_SPEND_METHOD</t>
+  </si>
+  <si>
+    <t>Shp_Lead_WK</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>MILO</t>
+  </si>
+  <si>
+    <t>$ BB Per Case</t>
+  </si>
+  <si>
+    <t>HILO</t>
+  </si>
+  <si>
+    <t>GRID_ROW</t>
+  </si>
+  <si>
+    <t>GSV LE vs Recipe Cheese</t>
+  </si>
+  <si>
+    <t>2019 WalMart  / Recipe Grated n Cul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +294,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -293,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -311,6 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -717,10 +748,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492717E-1E7A-4A9E-BD57-6FCA78715695}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +762,7 @@
     <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -769,10 +800,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -781,18 +812,18 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>52</v>
@@ -803,47 +834,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>2</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -857,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,10 +919,10 @@
         <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -927,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -957,17 +960,17 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1049,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>31</v>
@@ -1099,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1110,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,13 +1125,18 @@
     <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="14.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1142,16 +1150,31 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1164,49 +1187,65 @@
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC70F469-BB1C-4227-B0FE-B9269864245D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097AED2-90AE-45B1-9760-ED7627848943}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="3" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -167,12 +167,6 @@
     <t>DONK</t>
   </si>
   <si>
-    <t>Oct/23/2018</t>
-  </si>
-  <si>
-    <t>Oct/29/2018</t>
-  </si>
-  <si>
     <t>BTN_APPLY_EDLP</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>Product Costing</t>
   </si>
   <si>
-    <t>Base Planning</t>
-  </si>
-  <si>
     <t>Inc Planning</t>
   </si>
   <si>
@@ -239,12 +230,6 @@
     <t>Unit_Cost_Net_Allow</t>
   </si>
   <si>
-    <t>$ Scan per Unit</t>
-  </si>
-  <si>
-    <t>UB5 36z Velveeta Loaf 12 $15.30</t>
-  </si>
-  <si>
     <t>CUSTOMER_SEGMENT</t>
   </si>
   <si>
@@ -273,6 +258,30 @@
   </si>
   <si>
     <t>2019 WalMart  / Recipe Grated n Cul</t>
+  </si>
+  <si>
+    <t>$ WW per Case</t>
+  </si>
+  <si>
+    <t>Feb/25/2020</t>
+  </si>
+  <si>
+    <t>Feb/28/2019</t>
+  </si>
+  <si>
+    <t>Customer_Item_Desc</t>
+  </si>
+  <si>
+    <t>Polo</t>
+  </si>
+  <si>
+    <t>Customer_Item</t>
+  </si>
+  <si>
+    <t>Pull</t>
+  </si>
+  <si>
+    <t>Feb/24/2019</t>
   </si>
 </sst>
 </file>
@@ -751,7 +760,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,13 +795,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,7 +812,7 @@
         <v>2019</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -812,42 +821,42 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -858,17 +867,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
@@ -919,10 +928,10 @@
         <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -932,23 +941,23 @@
       <c r="B2" s="3">
         <v>2019</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>80</v>
+      <c r="C2" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
@@ -960,17 +969,12 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -981,10 +985,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,7 +1056,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>31</v>
@@ -1067,7 +1071,7 @@
         <v>34</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1078,10 +1082,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G2" s="3">
         <v>96.12</v>
@@ -1102,8 +1106,46 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="3">
+        <v>96.12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1113,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,16 +1169,18 @@
     <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="14" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.140625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="3"/>
+    <col min="13" max="13" width="19.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,31 +1194,37 @@
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1191,55 +1241,61 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K2" s="3">
         <v>3</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4097AED2-90AE-45B1-9760-ED7627848943}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A547382-B05A-472D-9ABF-6512E2622F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,23 @@
     <sheet name="ACC_PLANNER_PROD_COST" sheetId="7" r:id="rId5"/>
     <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -282,6 +288,9 @@
   </si>
   <si>
     <t>Feb/24/2019</t>
+  </si>
+  <si>
+    <t>283G BOCA VEGPROT FLM GRI EXP 6 | 000007592830016300</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1155,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,7 +1177,7 @@
     <col min="3" max="3" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" style="3" customWidth="1"/>
     <col min="7" max="7" width="11" style="3" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" style="3" customWidth="1"/>
@@ -1241,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>70</v>
@@ -1298,6 +1307,27 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G10" s="3">
+        <f>F10*F9</f>
+        <v>10714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <f>F11*F9</f>
+        <v>9740</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A547382-B05A-472D-9ABF-6512E2622F6B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60DF76-5F76-48FF-B41E-31BB3AB6B2E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
@@ -290,7 +290,7 @@
     <t>Feb/24/2019</t>
   </si>
   <si>
-    <t>283G BOCA VEGPROT FLM GRI EXP 6 | 000007592830016300</t>
+    <t>6Z KR M&amp;C MWO ELBOWS CHDR 12 | 000000210000609200</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,27 +1308,6 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="3">
-        <v>4870</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F10" s="3">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G10" s="3">
-        <f>F10*F9</f>
-        <v>10714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F11" s="3">
-        <v>2</v>
-      </c>
-      <c r="G11" s="3">
-        <f>F11*F9</f>
-        <v>9740</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B60DF76-5F76-48FF-B41E-31BB3AB6B2E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CEA6B-79F5-4272-A4BD-6E531001CEDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="714" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="847" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
     <sheet name="NAVIGATION" sheetId="5" r:id="rId2"/>
     <sheet name="DASHBRD" sheetId="2" r:id="rId3"/>
     <sheet name="ACC_PLANNER" sheetId="3" r:id="rId4"/>
-    <sheet name="ACC_PLANNER_PROD_COST" sheetId="7" r:id="rId5"/>
-    <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId6"/>
+    <sheet name="CUST_SETTINGS" sheetId="4" r:id="rId5"/>
+    <sheet name="ACC_PLANNER_PROD_COST" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -173,9 +173,6 @@
     <t>DONK</t>
   </si>
   <si>
-    <t>BTN_APPLY_EDLP</t>
-  </si>
-  <si>
     <t>Trade Rate by Month</t>
   </si>
   <si>
@@ -290,7 +287,7 @@
     <t>Feb/24/2019</t>
   </si>
   <si>
-    <t>6Z KR M&amp;C MWO ELBOWS CHDR 12 | 000000210000609200</t>
+    <t>19.12Z KR DL MAC CH SS OR CHED 8CT $6.99</t>
   </si>
 </sst>
 </file>
@@ -804,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -821,7 +818,7 @@
         <v>2019</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -830,42 +827,42 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -876,10 +873,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2F7406-B77D-4F70-A3D8-0D67A8563A67}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,9 +894,10 @@
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -937,13 +935,13 @@
         <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -951,22 +949,22 @@
         <v>2019</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
         <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
         <v>40</v>
@@ -978,13 +976,16 @@
         <v>39</v>
       </c>
       <c r="M2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -993,11 +994,164 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="58.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="14" style="3" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T1" activeCellId="2" sqref="T14 S1 T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,11 +1174,10 @@
     <col min="16" max="16" width="24.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1218,7 @@
         <v>30</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>31</v>
@@ -1079,11 +1232,8 @@
       <c r="R1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1091,10 +1241,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G2" s="3">
         <v>96.12</v>
@@ -1115,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1126,10 +1276,10 @@
         <v>35</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G3" s="3">
         <v>96.12</v>
@@ -1150,164 +1300,11 @@
         <v>2</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R4" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
-  <dimension ref="A1:N9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="14" style="3" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2018</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data Files/TestDataFile.xlsx
+++ b/Data Files/TestDataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Working\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Katalon Studio\Kraft_Latest\autoCode\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CEA6B-79F5-4272-A4BD-6E531001CEDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8649EAC8-F7C3-4CD8-9615-331DDC170C05}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" tabRatio="847" activeTab="4" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="847" activeTab="5" xr2:uid="{D4F270EC-5AE8-4120-82CE-49432D331804}"/>
   </bookViews>
   <sheets>
     <sheet name="LOGIN" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>19.12Z KR DL MAC CH SS OR CHED 8CT $6.99</t>
+  </si>
+  <si>
+    <t>NUC</t>
   </si>
 </sst>
 </file>
@@ -997,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD16D48-E1BF-47ED-A849-2E712965AECD}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C06D38-5D1F-4535-B092-021F7A539809}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" activeCellId="2" sqref="T14 S1 T1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,14 +1173,15 @@
     <col min="12" max="12" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="15" max="15" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1221,19 +1225,22 @@
         <v>64</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1249,26 +1256,14 @@
       <c r="G2" s="3">
         <v>96.12</v>
       </c>
-      <c r="I2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3">
-        <v>20</v>
-      </c>
       <c r="K2" s="3">
-        <v>1</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2</v>
-      </c>
-      <c r="P2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1293,18 +1288,18 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="3">
         <v>2</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="R4" s="7"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
